--- a/Milerova_ALG2_sem_Booking/PropertyInfo.xlsx
+++ b/Milerova_ALG2_sem_Booking/PropertyInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marke\Documents\NetBeansProjects\ALP2\Milerova_ALG2_sem_Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169D563D-156D-4129-98BC-82A00A92572C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5063E197-50AC-41C2-9A7C-3B5516EBC827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
   <si>
     <t>Villa</t>
   </si>
@@ -318,6 +318,30 @@
   </si>
   <si>
     <t>CAR</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>1 0</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>0 0,3 4</t>
+  </si>
+  <si>
+    <t>Giona</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>1 0,3 1</t>
   </si>
 </sst>
 </file>
@@ -642,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1739,6 +1763,99 @@
       </c>
       <c r="L30" s="1"/>
     </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>-300</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44565</v>
+      </c>
+      <c r="G31" s="1">
+        <v>44572</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44412</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44426</v>
+      </c>
+      <c r="J31" s="1">
+        <v>44446</v>
+      </c>
+      <c r="K31" s="1">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>400</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44565</v>
+      </c>
+      <c r="G32" s="1">
+        <v>44572</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44412</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44426</v>
+      </c>
+      <c r="J32" s="1">
+        <v>44446</v>
+      </c>
+      <c r="K32" s="1">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33">
+        <v>400</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44572</v>
+      </c>
+      <c r="G33" s="1">
+        <v>44565</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
